--- a/Sujeto_10/Carbohidrates.xlsx
+++ b/Sujeto_10/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7390904C-15B4-0B4F-8E31-320BCE6E4D9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E288A-6583-934B-BC44-C30540A199ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -58,10 +58,28 @@
     <t>52.7</t>
   </si>
   <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
     <t>40.3</t>
   </si>
   <si>
+    <t>138.0</t>
+  </si>
+  <si>
     <t>66.1</t>
+  </si>
+  <si>
+    <t>57.0</t>
   </si>
   <si>
     <t>54.5</t>
@@ -472,9 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -573,16 +589,16 @@
       <c r="A12" s="2">
         <v>44494.541666666657</v>
       </c>
-      <c r="B12">
-        <v>30</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44494.708333333343</v>
       </c>
-      <c r="B13">
-        <v>184</v>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,40 +613,40 @@
       <c r="A15" s="2">
         <v>44494.854166666657</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44494.861111111109</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44494.958333333343</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44495</v>
       </c>
-      <c r="B18">
-        <v>92</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44495.361111111109</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,47 +654,47 @@
         <v>44495.529861111107</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44495.75</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44495.763888888891</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44495.770833333343</v>
       </c>
-      <c r="B23">
-        <v>138</v>
+      <c r="B23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44495.916666666657</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44495.96875</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,15 +702,15 @@
         <v>44496</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44496.53125</v>
       </c>
-      <c r="B27">
-        <v>57</v>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,7 +718,7 @@
         <v>44496.861111111109</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
